--- a/biology/Zoologie/Hyphilaria_nicia/Hyphilaria_nicia.xlsx
+++ b/biology/Zoologie/Hyphilaria_nicia/Hyphilaria_nicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphilaria nicia est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Hyphilaria.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphilaria nicia a été décrit par Jacob Hübner en 1819.
-Synonyme : Papilio nicias Stoll, [1790]; Erycina nicon Godart, [1824][1].
+Synonyme : Papilio nicias Stoll, ; Erycina nicon Godart, .
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphilaria nicia est un petit papillon blanc (d'une envergure d'environ 23 mm) avec une bordure marron au bord costal des ailes antérieures et une bordure plus large marquée de traits blancs au bord externe des ailes antérieures et des ailes postérieures. Une ligne marron rejoint aux antérieures le bord costal à l'angle externe, aux postérieures les extrémités de la bordure marron déterminant sur chaque aile deux plages blanches.
 Le revers est identique.
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,12 +619,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyphilaria nicia est présent en Guyane, en Guyana, au Surinam et en Bolivie[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyphilaria nicia est présent en Guyane, en Guyana, au Surinam et en Bolivie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyphilaria_nicia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphilaria_nicia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
